--- a/Personal/Time Sheet_September_2023_Saklayen.xlsx
+++ b/Personal/Time Sheet_September_2023_Saklayen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asaklayen\Documents\App\MyAppData\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADA833F-7F07-4DF7-AADE-8E25964413C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9471ED4-18CE-4366-AD04-8CFABC0C0DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16347,7 +16347,7 @@
   <dimension ref="A1:AP147"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17043,7 +17043,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="12">
-        <v>2647642</v>
+        <v>2927965</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>107</v>
@@ -17218,123 +17218,123 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <f>SUM(H12:H16)</f>
+        <f t="shared" ref="H17:AK17" si="2">SUM(H12:H16)</f>
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <f>SUM(I12:I16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <f>SUM(J12:J16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K17" s="3">
-        <f>SUM(K12:K16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L17" s="3">
-        <f>SUM(L12:L16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M17" s="3">
-        <f>SUM(M12:M16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <f>SUM(N12:N16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O17" s="3">
-        <f>SUM(O12:O16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <f>SUM(P12:P16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <f>SUM(Q12:Q16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="R17" s="3">
-        <f>SUM(R12:R16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="S17" s="3">
-        <f>SUM(S12:S16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="T17" s="3">
-        <f>SUM(T12:T16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="U17" s="3">
-        <f>SUM(U12:U16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="V17" s="3">
-        <f>SUM(V12:V16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W17" s="3">
-        <f>SUM(W12:W16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <f>SUM(X12:X16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Y17" s="3">
-        <f>SUM(Y12:Y16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Z17" s="3">
-        <f>SUM(Z12:Z16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AA17" s="3">
-        <f>SUM(AA12:AA16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AB17" s="3">
-        <f>SUM(AB12:AB16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AC17" s="3">
-        <f>SUM(AC12:AC16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD17" s="3">
-        <f>SUM(AD12:AD16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE17" s="3">
-        <f>SUM(AE12:AE16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AF17" s="3">
-        <f>SUM(AF12:AF16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AG17" s="3">
-        <f>SUM(AG12:AG16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AH17" s="3">
-        <f>SUM(AH12:AH16)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AI17" s="3">
-        <f>SUM(AI12:AI16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="3">
-        <f>SUM(AJ12:AJ16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK17" s="40">
-        <f>SUM(AK12:AK16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL17" s="3">
